--- a/uploads/testcontrolshet1.xlsx
+++ b/uploads/testcontrolshet1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Control</t>
   </si>
@@ -66,18 +66,12 @@
     <t>Confirm that antivirus software is installed on all endpoints, up-to-date, and regular scans are performed to detect malware.</t>
   </si>
   <si>
-    <t>All endpoints are running CompanyProtect AV, which is updated daily with full scans performed weekly.</t>
-  </si>
-  <si>
     <t>Sensitive data must be encrypted at rest and in transit using company-approved standards.</t>
   </si>
   <si>
     <t>Confirm that sensitive data at rest is encrypted using AES-256 and data in transit is protected using SSL/TLS encryption.</t>
   </si>
   <si>
-    <t>Data at rest is encrypted using AES-256, and SSL/TLS is used for data in transit.</t>
-  </si>
-  <si>
     <t>An incident response plan must be in place and tested annually.</t>
   </si>
   <si>
@@ -121,6 +115,21 @@
   </si>
   <si>
     <t>The network is segmented with internal firewalls in place, isolating critical systems from general access.</t>
+  </si>
+  <si>
+    <t>Design Effectiveness</t>
+  </si>
+  <si>
+    <t>Operatinal Effectiveness</t>
+  </si>
+  <si>
+    <t>Is there A Finding?</t>
+  </si>
+  <si>
+    <t>Data at rest is encrypted using RSA-128, unsure of where data in transit is protected</t>
+  </si>
+  <si>
+    <t>All endpoints are running CompanyProtect AV, but regular update is not viable as some systems are running legacy</t>
   </si>
 </sst>
 </file>
@@ -455,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +476,7 @@
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,10 +487,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -491,9 +509,9 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -503,9 +521,9 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -515,9 +533,9 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -525,81 +543,81 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
